--- a/APM files/125625833/125625833 IMPORT 1 Promotion Basic MOD Evergreen.xlsx
+++ b/APM files/125625833/125625833 IMPORT 1 Promotion Basic MOD Evergreen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\125625833\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C487F32-FDBC-4413-9475-3E099D919ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7449810-8C72-4B68-A7ED-47CE0405D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="5400" windowWidth="21510" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="4950" windowWidth="21510" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>All Standalone</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -161,7 +158,10 @@
     <t>Private sale</t>
   </si>
   <si>
-    <t>04/03/2024</t>
+    <t>04/04/2024</t>
+  </si>
+  <si>
+    <t>All Rate Plans</t>
   </si>
 </sst>
 </file>
@@ -217,12 +217,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +528,7 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +670,7 @@
       <c r="B2">
         <v>125625833</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>66518266</v>
       </c>
       <c r="D2" t="s">
@@ -683,14 +682,14 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>42</v>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -708,7 +707,7 @@
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -726,19 +725,19 @@
         <v>37</v>
       </c>
       <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -748,7 +747,7 @@
       <c r="B3">
         <v>125625833</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>66732617</v>
       </c>
       <c r="D3" t="s">
@@ -760,14 +759,14 @@
       <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>42</v>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>42</v>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J3" t="s">
         <v>35</v>
@@ -785,7 +784,7 @@
         <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -803,19 +802,19 @@
         <v>37</v>
       </c>
       <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
         <v>39</v>
       </c>
-      <c r="V3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" t="s">
-        <v>41</v>
-      </c>
       <c r="Y3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -825,7 +824,7 @@
       <c r="B4">
         <v>125625833</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>13515230</v>
       </c>
       <c r="D4" t="s">
@@ -837,14 +836,14 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>42</v>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>42</v>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>35</v>
@@ -862,7 +861,7 @@
         <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -880,19 +879,19 @@
         <v>37</v>
       </c>
       <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
         <v>39</v>
       </c>
-      <c r="V4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>40</v>
       </c>
-      <c r="X4" t="s">
-        <v>41</v>
-      </c>
       <c r="Y4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -902,7 +901,7 @@
       <c r="B5">
         <v>125625833</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>73653520</v>
       </c>
       <c r="D5" t="s">
@@ -914,14 +913,14 @@
       <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>42</v>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>42</v>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>35</v>
@@ -939,7 +938,7 @@
         <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -957,19 +956,19 @@
         <v>37</v>
       </c>
       <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
         <v>39</v>
       </c>
-      <c r="V5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>40</v>
       </c>
-      <c r="X5" t="s">
-        <v>41</v>
-      </c>
       <c r="Y5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -979,7 +978,7 @@
       <c r="B6">
         <v>125625833</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>75784047</v>
       </c>
       <c r="D6" t="s">
@@ -991,14 +990,14 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>42</v>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>42</v>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>35</v>
@@ -1016,7 +1015,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1034,19 +1033,19 @@
         <v>37</v>
       </c>
       <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>40</v>
       </c>
-      <c r="X6" t="s">
-        <v>41</v>
-      </c>
       <c r="Y6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1056,7 +1055,7 @@
       <c r="B7">
         <v>125625833</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>90283188</v>
       </c>
       <c r="D7" t="s">
@@ -1068,14 +1067,14 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>42</v>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>35</v>
@@ -1093,7 +1092,7 @@
         <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1111,19 +1110,19 @@
         <v>37</v>
       </c>
       <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" t="s">
         <v>39</v>
       </c>
-      <c r="V7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>40</v>
       </c>
-      <c r="X7" t="s">
-        <v>41</v>
-      </c>
       <c r="Y7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1133,7 +1132,7 @@
       <c r="B8">
         <v>125625833</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>91362723</v>
       </c>
       <c r="D8" t="s">
@@ -1145,14 +1144,14 @@
       <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>42</v>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>42</v>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>35</v>
@@ -1170,7 +1169,7 @@
         <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1188,19 +1187,19 @@
         <v>37</v>
       </c>
       <c r="U8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s">
         <v>39</v>
       </c>
-      <c r="V8" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>40</v>
       </c>
-      <c r="X8" t="s">
-        <v>41</v>
-      </c>
       <c r="Y8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1210,7 +1209,7 @@
       <c r="B9">
         <v>125625833</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>91425612</v>
       </c>
       <c r="D9" t="s">
@@ -1222,14 +1221,14 @@
       <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>42</v>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>42</v>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>35</v>
@@ -1247,7 +1246,7 @@
         <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1265,19 +1264,19 @@
         <v>37</v>
       </c>
       <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s">
         <v>39</v>
       </c>
-      <c r="V9" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>40</v>
       </c>
-      <c r="X9" t="s">
-        <v>41</v>
-      </c>
       <c r="Y9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1287,7 +1286,7 @@
       <c r="B10">
         <v>125625833</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>92882116</v>
       </c>
       <c r="D10" t="s">
@@ -1299,14 +1298,14 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>42</v>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -1324,7 +1323,7 @@
         <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1342,19 +1341,19 @@
         <v>37</v>
       </c>
       <c r="U10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
         <v>39</v>
       </c>
-      <c r="V10" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>40</v>
       </c>
-      <c r="X10" t="s">
-        <v>41</v>
-      </c>
       <c r="Y10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1364,7 +1363,7 @@
       <c r="B11">
         <v>125625833</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>94799674</v>
       </c>
       <c r="D11" t="s">
@@ -1376,14 +1375,14 @@
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
@@ -1401,7 +1400,7 @@
         <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1419,19 +1418,19 @@
         <v>37</v>
       </c>
       <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s">
         <v>39</v>
       </c>
-      <c r="V11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>40</v>
       </c>
-      <c r="X11" t="s">
-        <v>41</v>
-      </c>
       <c r="Y11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1441,7 +1440,7 @@
       <c r="B12">
         <v>125625833</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>94851189</v>
       </c>
       <c r="D12" t="s">
@@ -1453,14 +1452,14 @@
       <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>42</v>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J12" t="s">
         <v>35</v>
@@ -1478,7 +1477,7 @@
         <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1496,19 +1495,19 @@
         <v>37</v>
       </c>
       <c r="U12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s">
         <v>39</v>
       </c>
-      <c r="V12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>40</v>
       </c>
-      <c r="X12" t="s">
-        <v>41</v>
-      </c>
       <c r="Y12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1518,7 +1517,7 @@
       <c r="B13">
         <v>125625833</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>95777994</v>
       </c>
       <c r="D13" t="s">
@@ -1530,14 +1529,14 @@
       <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H13" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>42</v>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
@@ -1555,7 +1554,7 @@
         <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1573,19 +1572,19 @@
         <v>37</v>
       </c>
       <c r="U13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s">
         <v>39</v>
       </c>
-      <c r="V13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>40</v>
       </c>
-      <c r="X13" t="s">
-        <v>41</v>
-      </c>
       <c r="Y13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1595,7 +1594,7 @@
       <c r="B14">
         <v>125625833</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>95874869</v>
       </c>
       <c r="D14" t="s">
@@ -1607,14 +1606,14 @@
       <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>42</v>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>42</v>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J14" t="s">
         <v>35</v>
@@ -1632,7 +1631,7 @@
         <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1650,19 +1649,19 @@
         <v>37</v>
       </c>
       <c r="U14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s">
         <v>39</v>
       </c>
-      <c r="V14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>40</v>
       </c>
-      <c r="X14" t="s">
-        <v>41</v>
-      </c>
       <c r="Y14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1672,7 +1671,7 @@
       <c r="B15">
         <v>125625833</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>96506415</v>
       </c>
       <c r="D15" t="s">
@@ -1684,14 +1683,14 @@
       <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>42</v>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>42</v>
+      <c r="I15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J15" t="s">
         <v>35</v>
@@ -1709,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1727,19 +1726,19 @@
         <v>37</v>
       </c>
       <c r="U15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" t="s">
         <v>39</v>
       </c>
-      <c r="V15" t="s">
-        <v>39</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>40</v>
       </c>
-      <c r="X15" t="s">
-        <v>41</v>
-      </c>
       <c r="Y15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -1749,7 +1748,7 @@
       <c r="B16">
         <v>125625833</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>97197431</v>
       </c>
       <c r="D16" t="s">
@@ -1761,14 +1760,14 @@
       <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>42</v>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>42</v>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J16" t="s">
         <v>35</v>
@@ -1786,7 +1785,7 @@
         <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1804,19 +1803,19 @@
         <v>37</v>
       </c>
       <c r="U16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" t="s">
         <v>39</v>
       </c>
-      <c r="V16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>40</v>
       </c>
-      <c r="X16" t="s">
-        <v>41</v>
-      </c>
       <c r="Y16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -1826,7 +1825,7 @@
       <c r="B17">
         <v>125625833</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>100898890</v>
       </c>
       <c r="D17" t="s">
@@ -1838,14 +1837,14 @@
       <c r="F17" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>42</v>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>42</v>
+      <c r="I17" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J17" t="s">
         <v>35</v>
@@ -1863,7 +1862,7 @@
         <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1881,19 +1880,19 @@
         <v>37</v>
       </c>
       <c r="U17" t="s">
+        <v>38</v>
+      </c>
+      <c r="V17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s">
         <v>39</v>
       </c>
-      <c r="V17" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>40</v>
       </c>
-      <c r="X17" t="s">
-        <v>41</v>
-      </c>
       <c r="Y17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -1903,7 +1902,7 @@
       <c r="B18">
         <v>125625833</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>82899</v>
       </c>
       <c r="D18" t="s">
@@ -1915,14 +1914,14 @@
       <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>42</v>
+      <c r="G18" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>42</v>
+      <c r="I18" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J18" t="s">
         <v>35</v>
@@ -1940,7 +1939,7 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1958,19 +1957,19 @@
         <v>37</v>
       </c>
       <c r="U18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s">
         <v>39</v>
       </c>
-      <c r="V18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>40</v>
       </c>
-      <c r="X18" t="s">
-        <v>41</v>
-      </c>
       <c r="Y18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -1980,7 +1979,7 @@
       <c r="B19">
         <v>125625833</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>899422</v>
       </c>
       <c r="D19" t="s">
@@ -1992,14 +1991,14 @@
       <c r="F19" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>42</v>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>42</v>
+      <c r="I19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J19" t="s">
         <v>35</v>
@@ -2017,7 +2016,7 @@
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2035,19 +2034,19 @@
         <v>37</v>
       </c>
       <c r="U19" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" t="s">
         <v>39</v>
       </c>
-      <c r="V19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>40</v>
       </c>
-      <c r="X19" t="s">
-        <v>41</v>
-      </c>
       <c r="Y19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
